--- a/CueRewardSize_condition.xlsx
+++ b/CueRewardSize_condition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="33">
   <si>
     <t>Condition</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>'RewardSize','large'</t>
+  </si>
+  <si>
+    <t>'RewardSize','average'</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>3,4</t>
   </si>
 </sst>
 </file>
@@ -429,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,8 +488,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -502,8 +514,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -528,8 +540,8 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -554,8 +566,8 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -580,8 +592,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -606,8 +618,8 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -632,8 +644,8 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="s">
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -658,8 +670,8 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="D9" t="s">
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -679,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -705,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -731,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -757,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" t="s">
+        <v>31</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -783,13 +795,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -809,13 +821,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="s">
+        <v>31</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -835,13 +847,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="D16" t="s">
+        <v>31</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -861,24 +873,232 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
         <v>26</v>
       </c>
     </row>
